--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abilinski/Dropbox/HepC_Challenge/0_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelslimovitch/Documents/22-23/Brown/Sem1/AB Research/HepC_Challenge/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870232AC-3B1B-3546-B780-E433D56D418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7934381-69D9-F04D-B03C-B58804221204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Source</t>
   </si>
@@ -48,13 +48,22 @@
   </si>
   <si>
     <t>Processed Filename</t>
+  </si>
+  <si>
+    <t>https://www.who.int/data/gho/indicator-metadata-registry/imr-details/5560</t>
+  </si>
+  <si>
+    <t>hpv.csv</t>
+  </si>
+  <si>
+    <t>what goes here?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +75,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,9 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,15 +426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B0351C-A46B-6B44-B01C-07A01A57639A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -435,6 +454,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44896</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelslimovitch/Documents/22-23/Brown/Sem1/AB Research/HepC_Challenge/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7934381-69D9-F04D-B03C-B58804221204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E3F0D-89AA-644A-9CED-86910C974C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
+    <workbookView xWindow="2840" yWindow="1540" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Source</t>
   </si>
@@ -57,6 +57,39 @@
   </si>
   <si>
     <t>what goes here?</t>
+  </si>
+  <si>
+    <t>hpv_vaxprogram.csv</t>
+  </si>
+  <si>
+    <t>hepc_daa.csv</t>
+  </si>
+  <si>
+    <t>hepc_lancet_diagnosed_treated.csv</t>
+  </si>
+  <si>
+    <t>HepC_incidence.csv</t>
+  </si>
+  <si>
+    <t>hepb.csv</t>
+  </si>
+  <si>
+    <t>https://apps.who.int/gho/athena/api/GHO/NCD_CCS_hpv</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/cms/10.1016/S0140-6736(18)32277-3/attachment/bc5a7737-f8ff-4508-a2ee-b127999e0b60/mmc1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.who.int/data/gho/data/indicators/indicator-details/GHO/hepatitis-b-(hepb3)-immunization-coverage-among-1-year-olds-(-)</t>
+  </si>
+  <si>
+    <t>https://vizhub.healthdata.org/gbd-results/</t>
+  </si>
+  <si>
+    <t>add hep b incidence</t>
+  </si>
+  <si>
+    <t>add hpv incidence</t>
   </si>
 </sst>
 </file>
@@ -87,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,11 +146,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,21 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B0351C-A46B-6B44-B01C-07A01A57639A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -454,19 +505,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44896</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelslimovitch/Documents/22-23/Brown/Sem1/AB Research/HepC_Challenge/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E3F0D-89AA-644A-9CED-86910C974C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07940BB2-C441-7B43-9AFA-D2EC7D48F68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1540" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
+    <workbookView xWindow="760" yWindow="580" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Source</t>
   </si>
@@ -68,9 +68,6 @@
     <t>hepc_lancet_diagnosed_treated.csv</t>
   </si>
   <si>
-    <t>HepC_incidence.csv</t>
-  </si>
-  <si>
     <t>hepb.csv</t>
   </si>
   <si>
@@ -86,10 +83,25 @@
     <t>https://vizhub.healthdata.org/gbd-results/</t>
   </si>
   <si>
-    <t>add hep b incidence</t>
-  </si>
-  <si>
-    <t>add hpv incidence</t>
+    <t>hpv_incidence</t>
+  </si>
+  <si>
+    <t>https://gco.iarc.fr/today/online-analysis-table?v=2020&amp;mode=population&amp;mode_population=countries&amp;population=900&amp;populations=900&amp;key=asr&amp;sex=2&amp;cancer=23&amp;type=0&amp;statistic=5&amp;prevalence=0&amp;population_group=0&amp;ages_group%5B%5D=0&amp;ages_group%5B%5D=17&amp;group_cancer=1&amp;include_nmsc=0&amp;include_nmsc_other=1</t>
+  </si>
+  <si>
+    <t>hpv_mortality</t>
+  </si>
+  <si>
+    <t>https://gco.iarc.fr/today/online-analysis-table?v=2020&amp;mode=population&amp;mode_population=countries&amp;population=900&amp;populations=900&amp;key=asr&amp;sex=2&amp;cancer=23&amp;type=1&amp;statistic=5&amp;prevalence=0&amp;population_group=0&amp;ages_group%5B%5D=0&amp;ages_group%5B%5D=17&amp;group_cancer=1&amp;include_nmsc=0&amp;include_nmsc_other=1</t>
+  </si>
+  <si>
+    <t>hepb_incidence.csv</t>
+  </si>
+  <si>
+    <t>https://vizhub.healthdata.org/gbd-results/?params=gbd-api-2019-permalink/3ef624c750e236c337df36aaf7952ac0</t>
+  </si>
+  <si>
+    <t>hepc_incidence.csv</t>
   </si>
 </sst>
 </file>
@@ -120,18 +132,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,7 +166,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B0351C-A46B-6B44-B01C-07A01A57639A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,73 +530,83 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>44901</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44901</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44901</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44901</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>44901</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44901</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -605,30 +621,34 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44901</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44901</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44901</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,6 +663,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelslimovitch/Documents/22-23/Brown/Sem1/AB Research/HepC_Challenge/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07940BB2-C441-7B43-9AFA-D2EC7D48F68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F04561-1FCA-1B4F-9084-6D5A1CC5AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="580" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
+    <workbookView xWindow="2840" yWindow="1860" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Source</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>hepc_incidence.csv</t>
+  </si>
+  <si>
+    <t>population_per_country.csv</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.POP.TOTL?end=2021&amp;start=2000</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,10 +657,16 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44908</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelslimovitch/Documents/22-23/Brown/Sem1/AB Research/HepC_Challenge/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F04561-1FCA-1B4F-9084-6D5A1CC5AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56796C39-5744-9141-879A-7BBFC907697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1860" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/0_Data/ReadMe.xlsx
+++ b/0_Data/ReadMe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelslimovitch/Documents/22-23/Brown/Sem1/AB Research/HepC_Challenge/0_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssabilinsi/Dropbox (Brown)/HepC_Challenge/0_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56796C39-5744-9141-879A-7BBFC907697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1233ED49-2687-6446-BAE0-DB575CF35E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28040" windowHeight="16460" xr2:uid="{2D6E2430-778C-1349-A33C-E92E22B23090}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Source</t>
   </si>
@@ -47,16 +47,10 @@
     <t>Raw Filename</t>
   </si>
   <si>
-    <t>Processed Filename</t>
-  </si>
-  <si>
     <t>https://www.who.int/data/gho/indicator-metadata-registry/imr-details/5560</t>
   </si>
   <si>
     <t>hpv.csv</t>
-  </si>
-  <si>
-    <t>what goes here?</t>
   </si>
   <si>
     <t>hpv_vaxprogram.csv</t>
@@ -114,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,13 +120,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,12 +154,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B0351C-A46B-6B44-B01C-07A01A57639A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,10 +481,9 @@
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,173 +493,151 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>44896</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>44901</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
-        <v>44901</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="3">
         <v>44901</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <v>44901</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44901</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="3">
         <v>44901</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
         <v>44901</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3">
-        <v>44901</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>44908</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
